--- a/biology/Zoologie/Callioplana/Callioplana.xlsx
+++ b/biology/Zoologie/Callioplana/Callioplana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callioplana est un genre de vers plats marins de la famille des Callioplanidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Callioplana
-Le nom valide complet (avec auteur) de ce taxon est Callioplana Stimpson, 1857[1].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (15 novembre 2023)[1], le genre Callioplana contient les espèces suivantes :
-Callioplana evelinae Marcus, 1954
-Callioplana marginata Stimpson, 1857</t>
+          <t>Callioplana</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Callioplana Stimpson, 1857.
+</t>
         </is>
       </c>
     </row>
@@ -569,10 +585,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (15 novembre 2023), le genre Callioplana contient les espèces suivantes :
+Callioplana evelinae Marcus, 1954
+Callioplana marginata Stimpson, 1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callioplana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callioplana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>William Stimpson, 1857 : « Prodromus descriptionis animalium evertebratorum quae in expeditione ad oceanum, pacificum septentrionalem a Republic Federata missa, Johanne Rogers Duce observavit et descripsit. Pars. I. Turbellaria Dendrocoela ». Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 9, p. 19–31 (lire en ligne).</t>
         </is>
